--- a/image/bundle.xlsx
+++ b/image/bundle.xlsx
@@ -878,45 +878,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.6328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.17578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="163.2734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="41.66015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="41.4296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/bundle.xlsx
+++ b/image/bundle.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="228">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -365,10 +365,6 @@
   </si>
   <si>
     <t>Bundle.link.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -878,45 +874,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.17578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.6328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.58203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="162.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.01171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="41.4296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="41.66015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2169,13 +2165,13 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2226,25 +2222,25 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2255,11 +2251,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2278,16 +2274,16 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2337,7 +2333,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2355,7 +2351,7 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2366,11 +2362,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2389,19 +2385,19 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2450,7 +2446,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2479,7 +2475,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2502,13 +2498,13 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2559,7 +2555,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>49</v>
@@ -2588,7 +2584,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2614,10 +2610,10 @@
         <v>62</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2668,7 +2664,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>49</v>
@@ -2697,7 +2693,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2723,10 +2719,10 @@
         <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2777,7 +2773,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2789,7 +2785,7 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>40</v>
@@ -2806,7 +2802,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2829,13 +2825,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2886,25 +2882,25 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -2915,11 +2911,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2938,16 +2934,16 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2997,7 +2993,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3015,7 +3011,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3026,11 +3022,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3049,19 +3045,19 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3110,7 +3106,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3139,7 +3135,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3165,10 +3161,10 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3219,7 +3215,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3248,7 +3244,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3274,13 +3270,13 @@
         <v>62</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3330,7 +3326,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3359,7 +3355,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3382,13 +3378,13 @@
         <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3439,7 +3435,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3468,7 +3464,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3494,10 +3490,10 @@
         <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3548,7 +3544,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3557,7 +3553,7 @@
         <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>109</v>
@@ -3577,7 +3573,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3600,13 +3596,13 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3657,25 +3653,25 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3686,11 +3682,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3709,16 +3705,16 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3768,7 +3764,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3786,7 +3782,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -3797,11 +3793,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3820,19 +3816,19 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -3881,7 +3877,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3910,7 +3906,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3936,13 +3932,13 @@
         <v>68</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3971,11 +3967,11 @@
         <v>87</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4021,7 +4017,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4044,16 +4040,16 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4103,7 +4099,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4132,7 +4128,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4158,10 +4154,10 @@
         <v>105</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4212,7 +4208,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4221,7 +4217,7 @@
         <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>109</v>
@@ -4241,7 +4237,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4264,13 +4260,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4321,25 +4317,25 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4350,11 +4346,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4373,16 +4369,16 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4432,7 +4428,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4450,7 +4446,7 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4461,11 +4457,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4484,19 +4480,19 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4545,7 +4541,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4574,7 +4570,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4600,10 +4596,10 @@
         <v>68</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4633,11 +4629,11 @@
         <v>87</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
       </c>
@@ -4654,7 +4650,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>49</v>
@@ -4683,7 +4679,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4709,13 +4705,13 @@
         <v>62</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4765,7 +4761,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>49</v>
@@ -4794,7 +4790,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4817,13 +4813,13 @@
         <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4874,7 +4870,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -4903,7 +4899,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4929,10 +4925,10 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4983,7 +4979,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5012,7 +5008,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5035,13 +5031,13 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5092,7 +5088,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5121,7 +5117,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5144,13 +5140,13 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5201,7 +5197,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5230,7 +5226,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5256,10 +5252,10 @@
         <v>105</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5310,7 +5306,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5319,7 +5315,7 @@
         <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>109</v>
@@ -5339,7 +5335,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5362,13 +5358,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5419,25 +5415,25 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5448,11 +5444,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5471,16 +5467,16 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5530,7 +5526,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5548,7 +5544,7 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
@@ -5559,11 +5555,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5582,19 +5578,19 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5643,7 +5639,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5672,7 +5668,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5695,13 +5691,13 @@
         <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5752,7 +5748,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>49</v>
@@ -5781,7 +5777,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5807,10 +5803,10 @@
         <v>62</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5861,7 +5857,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -5890,7 +5886,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5913,16 +5909,16 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -5972,7 +5968,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6001,7 +5997,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6027,13 +6023,13 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6083,7 +6079,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6112,7 +6108,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6135,16 +6131,16 @@
         <v>50</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6194,7 +6190,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6223,7 +6219,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6246,19 +6242,19 @@
         <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6307,7 +6303,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
